--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2317234.424846417</v>
+        <v>2314690.615339333</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283199</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>259.6326967715751</v>
       </c>
       <c r="W2" t="n">
-        <v>110.096520216718</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>28.33708868093411</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>37.34724819842837</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>250.2656289476632</v>
+        <v>60.96760033386582</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187183</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.8563301598672</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>53.36410705248033</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>158.7773581707422</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>232.1196458343692</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465054</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>197.8244010340094</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.868631290865</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662801</v>
+        <v>20.24979976115246</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>62.94356982157638</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>20.53952247906581</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1373,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695757</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417139</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695169</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>250.1067528667079</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.44930784064623</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722629</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678357619</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057049</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999787</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609307</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677.2692571593335</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="C2" t="n">
-        <v>677.2692571593335</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="D2" t="n">
-        <v>677.2692571593335</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="E2" t="n">
-        <v>677.2692571593335</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="F2" t="n">
-        <v>670.32375641013</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388466</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="W2" t="n">
-        <v>677.2692571593335</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="X2" t="n">
-        <v>677.2692571593335</v>
+        <v>423.8554133656001</v>
       </c>
       <c r="Y2" t="n">
-        <v>677.2692571593335</v>
+        <v>423.8554133656001</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304912</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263895</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>227.0369405499142</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.232198106091</v>
+        <v>227.0369405499142</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321.9084309645528</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>321.9084309645528</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>321.9084309645528</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9084309645528</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
         <v>175.0184834666425</v>
@@ -4480,28 +4480,28 @@
         <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="U4" t="n">
-        <v>576.5929191704397</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>321.9084309645528</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>321.9084309645528</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>321.9084309645528</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>321.9084309645528</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.438579740743</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917582</v>
+        <v>49.2826908791759</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>474.2580350095596</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755936</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.8363344083309</v>
+        <v>225.116888249305</v>
       </c>
       <c r="C7" t="n">
-        <v>315.900151480424</v>
+        <v>225.116888249305</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>894.474350136588</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>666.4847992385706</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.4847992385706</v>
+        <v>225.116888249305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1410.357830041776</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>1041.395313101364</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>683.1296144946139</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>297.3413618963696</v>
+        <v>540.2933661004025</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478457</v>
+        <v>533.3478653511991</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685579</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685579</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467176</v>
+        <v>187.3702251467165</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607434</v>
+        <v>442.1757437607409</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2053.905718940592</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2359.356530550193</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342789</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342789</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342789</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342789</v>
+        <v>2227.077931858403</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342789</v>
+        <v>1874.309276588289</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.097002081709</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.957670105898</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010841</v>
+        <v>929.5097208010723</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199571</v>
+        <v>755.0566915199453</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587058</v>
+        <v>606.122281858694</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532503</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801353</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763235</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530445983</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507239</v>
+        <v>113.4887579637184</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018236</v>
+        <v>559.9063389572701</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353054</v>
+        <v>854.4423223907509</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209607</v>
+        <v>1217.508790865052</v>
       </c>
       <c r="N9" t="n">
-        <v>1467.602733682177</v>
+        <v>1851.248074049889</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.489543669567</v>
+        <v>2183.134884037278</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030395</v>
+        <v>2430.170242466902</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442632</v>
+        <v>2545.387641020646</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251705</v>
+        <v>2424.826280251693</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685354</v>
+        <v>2230.816477685342</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751583</v>
+        <v>2002.726321751571</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351984</v>
+        <v>1767.574213519829</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791639</v>
+        <v>1513.336856791627</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586106</v>
+        <v>1305.485356586094</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821152</v>
+        <v>1097.72505782114</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>581.7565345856293</v>
+        <v>367.0373856326728</v>
       </c>
       <c r="C10" t="n">
-        <v>412.8203516577224</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="D10" t="n">
-        <v>262.7037122453867</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="E10" t="n">
-        <v>114.7906186629936</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>114.7906186629936</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685555</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380178</v>
+        <v>76.63468308380124</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676563</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368928</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904048</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1113.534501108857</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771972007</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.96628376612</v>
+        <v>838.1030204998731</v>
       </c>
       <c r="W10" t="n">
-        <v>802.5491137291594</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="X10" t="n">
-        <v>802.5491137291594</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="Y10" t="n">
-        <v>581.7565345856293</v>
+        <v>548.6858504629125</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551871</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611459</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,34 +5057,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.637687073287</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1181.068281945074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>953.0787310470569</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>732.2861519035267</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,55 +5738,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,64 +5975,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6260,16 +6260,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6546,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597624</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179767</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611851</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138338</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,61 +7151,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,19 +7643,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7664,7 +7664,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7810,46 +7810,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594376</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594547</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538069</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>168.2361746779829</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.31458639917332</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-5.911579924480094e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4.376943252282217e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538609</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.595346242946107e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>36.41624546988314</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685186</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333223</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659051</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404979</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815075.8712351661</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815075.8712351662</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351661</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.327398212</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580807</v>
+        <v>390680.0076580775</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606916</v>
+        <v>507909.2320606947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911397</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>3.861628258540615e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101805</v>
+        <v>95270.23779101727</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954686</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.855771674</v>
+        <v>135650.8557716749</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744155</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744093</v>
+        <v>8727.256391744289</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.25639174418</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744248</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.25639174418</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744233</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744269</v>
+        <v>8727.256391744231</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744269</v>
+        <v>8727.256391744188</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744306</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744202</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744284</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92902.86757567886</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375003.023439636</v>
+        <v>-375003.0234396365</v>
       </c>
       <c r="C6" t="n">
-        <v>305084.9571515571</v>
+        <v>305084.957151557</v>
       </c>
       <c r="D6" t="n">
-        <v>-3452.403607221291</v>
+        <v>-3452.403607219341</v>
       </c>
       <c r="E6" t="n">
-        <v>-12399.06850883871</v>
+        <v>-12433.80643427746</v>
       </c>
       <c r="F6" t="n">
-        <v>495510.1635518532</v>
+        <v>495475.4256264173</v>
       </c>
       <c r="G6" t="n">
-        <v>495510.1635518527</v>
+        <v>495475.4256264173</v>
       </c>
       <c r="H6" t="n">
-        <v>495510.163551853</v>
+        <v>495475.4256264176</v>
       </c>
       <c r="I6" t="n">
-        <v>495510.163551853</v>
+        <v>495475.425626417</v>
       </c>
       <c r="J6" t="n">
-        <v>426511.0091327389</v>
+        <v>426476.2712073032</v>
       </c>
       <c r="K6" t="n">
-        <v>495510.1635518529</v>
+        <v>495475.4256264173</v>
       </c>
       <c r="L6" t="n">
-        <v>400239.9257608348</v>
+        <v>400205.1878353999</v>
       </c>
       <c r="M6" t="n">
-        <v>362792.1878563845</v>
+        <v>362757.4499309477</v>
       </c>
       <c r="N6" t="n">
-        <v>495510.1635518526</v>
+        <v>495475.425626417</v>
       </c>
       <c r="O6" t="n">
-        <v>495510.163551853</v>
+        <v>495475.4256264174</v>
       </c>
       <c r="P6" t="n">
-        <v>495510.163551853</v>
+        <v>495475.425626417</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627843</v>
+        <v>933.7024595627818</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856973</v>
+        <v>640.1406900856944</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.827035323175769e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793306</v>
+        <v>319.6474457933034</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788895</v>
+        <v>434.2730407788922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139508</v>
+        <v>532.567598013954</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139508</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.827035323175769e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139508</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>68.11956169855978</v>
       </c>
       <c r="W2" t="n">
-        <v>239.144448500695</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,25 +27458,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>177.4358965225434</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>168.335447578876</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>35.9930015550143</v>
+        <v>225.2910301688117</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531025</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514519</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114899</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052421</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.05694097045091</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>127.7456401658488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>174.7563999073423</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465014</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>171.9066996444596</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164535961</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164524269</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>103.3636837901298</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>265.6876672912386</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.204956935723455e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.009647620729209e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,19 +28849,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-8.045058871959615e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.76829585457042e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.045058871959615e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.045058871959615e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,13 +29086,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-8.045058871959615e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-8.045058871959615e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-8.045058871959615e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.10924786597401e-12</v>
+        <v>-1.151041806110126e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1.151041806110126e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-7.517303009959066e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.753577726885552</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546677</v>
+        <v>38.44132789546667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972529</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763197</v>
+        <v>477.4691627763184</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354923</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359949</v>
+        <v>659.0954050359932</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525086</v>
+        <v>669.7602577525068</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307886</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983014</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542135</v>
+        <v>405.3441667542124</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.5346524514046</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902628</v>
+        <v>69.14683309026262</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502164</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571275</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.867840461716</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152207</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451909</v>
+        <v>477.8354464519078</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947585</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133947</v>
+        <v>8.095024154133926</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415873</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307425</v>
+        <v>75.70643221307405</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942742</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650347</v>
+        <v>0.09183958618650322</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>152.5685698206133</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,19 +34442,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.87976539609076</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333356</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313379</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655051</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087222</v>
+        <v>428.7491718087205</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559176</v>
+        <v>440.3471941559159</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091018</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.5361733430319</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879764</v>
+        <v>183.038476879763</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234326</v>
+        <v>20.20013907234264</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.997603781685</v>
+        <v>62.90656844127562</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758583</v>
+        <v>450.926849488436</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772545</v>
+        <v>297.5110943772534</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>366.7338065396977</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>640.1406900856944</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074646</v>
+        <v>335.2392020074633</v>
       </c>
       <c r="P9" t="n">
-        <v>417.7668397584121</v>
+        <v>249.5306650804282</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961981</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783592</v>
+        <v>15.32840335568808</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873332</v>
+        <v>25.68023017873301</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228567</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396396</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394601</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191239</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394598</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191328</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010452</v>
